--- a/websites.xlsx
+++ b/websites.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t xml:space="preserve">平台</t>
   </si>
@@ -109,18 +109,12 @@
     <t xml:space="preserve">https://web.archive.org/web/20240601000000*/https://developer.10101111.com/register/protocol</t>
   </si>
   <si>
-    <t xml:space="preserve">可以</t>
-  </si>
-  <si>
     <t xml:space="preserve">嘀嗒出行</t>
   </si>
   <si>
     <t xml:space="preserve">https://web.didachuxing.com/web-public-lawrules</t>
   </si>
   <si>
-    <t xml:space="preserve">说不定可以自动</t>
-  </si>
-  <si>
     <t xml:space="preserve">携程</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t xml:space="preserve">https://rules-center.meituan.com/rules-detail/4</t>
   </si>
   <si>
-    <t xml:space="preserve">wyyx</t>
-  </si>
-  <si>
     <t xml:space="preserve">阿姨帮</t>
   </si>
   <si>
@@ -187,10 +178,16 @@
     <t xml:space="preserve">https://rule.tencent.com/rule/46a15f24-e42c-4cb6-a308-2347139b12012</t>
   </si>
   <si>
+    <t xml:space="preserve">没这网站</t>
+  </si>
+  <si>
     <t xml:space="preserve">腾讯游戏</t>
   </si>
   <si>
     <t xml:space="preserve">腾讯游戏协议</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网站呢</t>
   </si>
   <si>
     <t xml:space="preserve">网易游戏</t>
@@ -385,6 +382,7 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -392,6 +390,7 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,20 +438,24 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -632,31 +635,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="83.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="83.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="34.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -664,13 +667,13 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,559 +681,613 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>32</v>
+      <c r="D14" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>39</v>
+      <c r="D16" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>43</v>
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="0" t="n">
+        <f aca="false">SUM(D1:D49)</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/websites.xlsx
+++ b/websites.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="109">
   <si>
     <t xml:space="preserve">平台</t>
   </si>
@@ -226,6 +226,9 @@
     <t xml:space="preserve">https://www.douyu.com/cms/ptgz/202007/31/16102.shtml</t>
   </si>
   <si>
+    <t xml:space="preserve">就一份 不爬</t>
+  </si>
+  <si>
     <t xml:space="preserve">虎牙直播</t>
   </si>
   <si>
@@ -254,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://agree.xiaohongshu.com/h5/terms/ZXXY20220331001/-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">起点中文网</t>
@@ -637,8 +643,8 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,7 +811,7 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -897,7 +903,7 @@
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -911,7 +917,7 @@
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -947,7 +953,7 @@
       <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -961,7 +967,7 @@
       <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -978,7 +984,7 @@
       <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -995,7 +1001,7 @@
       <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1009,7 +1015,7 @@
       <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1023,7 +1029,7 @@
       <c r="C27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1037,6 +1043,9 @@
       <c r="C28" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
@@ -1048,7 +1057,7 @@
       <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1062,13 +1071,19 @@
       <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>49</v>
@@ -1076,54 +1091,66 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>49</v>
@@ -1131,10 +1158,10 @@
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>49</v>
@@ -1142,152 +1169,170 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D44" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D46" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="2" t="n">
         <f aca="false">SUM(D1:D49)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
